--- a/webproject1/app/static/setting/member.xlsx
+++ b/webproject1/app/static/setting/member.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,52 +436,81 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>본부</t>
+          <t>팀</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>팀</t>
+          <t>성명</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>성명</t>
+          <t>사번</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>사번</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>IP2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>전화번호</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>모니터1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>모니터2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>모니터3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>임원</t>
+          <t>대표이사</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>대표이사</t>
+          <t>손석근</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>손석근</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>27001266</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -489,24 +518,49 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>119A2639</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>11928039</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>11928040</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>임원</t>
+          <t>사외이사</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사외이사</t>
+          <t>강임호</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>강임호</t>
+          <t>27001146</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,6 +574,31 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -533,17 +612,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>이윤노</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>이윤노</t>
+          <t>27000552</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -554,6 +633,31 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2803</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>119A3216</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>119A5018</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>11949310</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -565,17 +669,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>김석</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>김석</t>
+          <t>27000756</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,6 +690,31 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>2846</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>119A4929</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>11550701</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>119A5016</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -597,17 +726,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>김환호</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>김환호</t>
+          <t>27001011</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -618,6 +747,31 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>2896</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11997490</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>11969665</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11996872</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -629,17 +783,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>정은경</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정은경</t>
+          <t>27000852</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -650,6 +804,31 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>2804</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>119A3181</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>11887545</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12014731</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -661,17 +840,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>정지원</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>정지원</t>
+          <t>27000618</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,7 +860,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2800/2847</t>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>119A2640</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>11660028</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12008815</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -693,27 +897,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>송병규</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>송병규</t>
+          <t>27001218</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27001218</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>2703</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>11938264</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12121617</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>11996868</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -725,12 +954,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>강현범</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>강현범</t>
+          <t>27001119</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,6 +973,31 @@
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -752,22 +1006,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LDI운용본부</t>
+          <t>경영지원팀</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LDI운용본부</t>
+          <t>최근영</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>정태욱</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,6 +1030,31 @@
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>119A3215</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12230101</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12230188</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -789,25 +1068,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LDI운용1팀</t>
+          <t>정태욱</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>이종인</t>
+          <t>28040261</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>202</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>219</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>2815</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>119A3213</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>119A3221</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>11219345</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>12114035</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -816,22 +1120,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LDI운용본부</t>
+          <t>LDI운용1팀</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LDI운용1팀</t>
+          <t>이종인</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>정슬기</t>
+          <t>27000672</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -841,29 +1145,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2809</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>119A3210</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12208532</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>12009540</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12009544</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>12208534</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LDI운용본부</t>
+          <t>LDI운용1팀</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LDI운용2팀</t>
+          <t>정슬기</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>우병학</t>
+          <t>27001047</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>206</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -873,29 +1202,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2834</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>119A4933</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12208533</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>12121618</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12121619</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>12208535</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LDI운용본부</t>
+          <t>LDI운용2팀</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LDI운용2팀</t>
+          <t>우병학</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>이현지</t>
+          <t>27040273</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -904,6 +1258,31 @@
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>11993984</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12115974</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12115975</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -912,22 +1291,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LDI운용본부</t>
+          <t>LDI운용2팀</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LDI운용3팀</t>
+          <t>이현지</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>노동혁</t>
+          <t>27000879</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>208</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -936,6 +1315,31 @@
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>119A3218</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>12134213</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12134989</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -944,22 +1348,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LDI운용본부</t>
+          <t>LDI운용3팀</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LDI운용3팀</t>
+          <t>노동혁</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>김대홍</t>
+          <t>27001044</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>207</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -969,39 +1373,89 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2816</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>119A2638</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>11970626</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>11539955</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>11500988</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>11970627</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>LDI운용3팀</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>김대홍</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>김주일</t>
+          <t>27001194</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27000981</t>
+          <t>213</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>119A2636</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>11558266</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12159857</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1013,145 +1467,245 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>대체투자2팀</t>
+          <t>김주일</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>김성렬</t>
+          <t>27000981</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26070240</t>
+          <t>193</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>2838</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>119A3153</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>11979373</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>11919018</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>대체투자1팀</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>대체투자2팀</t>
+          <t>맹서현</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>배진우</t>
+          <t>27001284</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27000354</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>12223565</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>12223560</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12223561</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>대체투자1팀</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>대체투자2팀</t>
+          <t>김선영</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>김민경</t>
+          <t>27001257</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27001029</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>2710</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>119A4924</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>대체투자1팀</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>대체투자2팀</t>
+          <t>김예은</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>주보은</t>
+          <t>27001224</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27001224</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>119A3222</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>대체투자1팀</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>최해린</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>박영진</t>
+          <t>27001107</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1161,37 +1715,87 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>2714</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>119A3212</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>12111834</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>12111837</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>대체투자2팀</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>대체투자1팀</t>
+          <t>김성렬</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>맹서현</t>
+          <t>26070240</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>2879</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>119A3155</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1200,192 +1804,342 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>대체투자2팀</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>대체투자1팀</t>
+          <t>배진우</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>최해린</t>
+          <t>27000354</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27001107</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>119A3162</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>12074042</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>12150508</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>대체투자2팀</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>대체투자1팀</t>
+          <t>김민경</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>김선영</t>
+          <t>27001029</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>27001257</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>2856</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>11970737</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>11970738</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>12052997</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>대체투자본부</t>
+          <t>대체투자2팀</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>대체투자1팀</t>
+          <t>주보은</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>김예은</t>
+          <t>27001224</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27001224</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>119A3152</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12121614</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>HK-M-0011</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>부동산투자본부</t>
+          <t>대체투자3팀</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>부동산투자본부</t>
+          <t>한승규</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>김홍직</t>
+          <t>27001086</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27001164</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>11953836</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>부동산투자본부</t>
+          <t>대체투자3팀</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>부동산투자1팀</t>
+          <t>이정원</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>유동훈</t>
+          <t>27001083</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27001173</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>119A3219</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>부동산투자본부</t>
+          <t>대체투자3팀</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>부동산투자1팀</t>
+          <t>황혜진</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>조정현</t>
+          <t>27001059</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27001176</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>119A3223</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>12111347</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>12111346</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1397,49 +2151,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>부동산투자1팀</t>
+          <t>김홍직</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>김수정</t>
+          <t>27001164</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27001254</t>
+          <t>183</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2723</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>12134212</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>12074041</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>12097168</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>부동산투자본부</t>
+          <t>부동산투자1팀</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>부동산투자1팀</t>
+          <t>유동훈</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>정욱렬</t>
+          <t>27001173</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>171</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1449,29 +2228,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>12149861</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>12149858</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>12149859</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>부동산투자본부</t>
+          <t>부동산투자1팀</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>부동산투자1팀</t>
+          <t>정욱렬</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>이건형</t>
+          <t>27001179</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>175</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1481,157 +2285,282 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2721</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>12154948</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>12154943</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>12154946</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>부동산투자1팀</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>조정현</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>성기전</t>
+          <t>27001176</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28040192</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>2725</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>12149860</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>12149856</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>12149857</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>부동산투자1팀</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>홀세일마케팅1팀</t>
+          <t>이건형</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>김남훈</t>
+          <t>27001182</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27001239</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2876</t>
+          <t>2806</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>12154947</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>12154944</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>12154945</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>부동산투자1팀</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>홀세일마케팅2팀</t>
+          <t>김수정</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>구혜진</t>
+          <t>27001254</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27001227</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2715</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>119A3163</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11977387</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>11970739</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>투자금융본부</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>천우정</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>박수연</t>
+          <t>27000495</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>27001233</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>2860</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>119A3224</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>12097166</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>12135700</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>기업투자팀</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>심종민</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>이형철</t>
+          <t>27001293</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1641,93 +2570,168 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>119A3170</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>12224517</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>12224518</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>기업투자팀</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>홀세일마케팅2팀</t>
+          <t>김태정</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>김세진</t>
+          <t>27000807</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>27001131</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>119A3156</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>11833668</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>11833669</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>기업투자팀</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>홀세일마케팅1팀</t>
+          <t>김시영</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>이선정</t>
+          <t>27000990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>27001113</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>119A4925</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>11977384</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>11977385</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>투자금융팀</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>홀세일마케팅1팀</t>
+          <t>김선민</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>박재환</t>
+          <t>27001080</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1737,61 +2741,111 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>12096648</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>12096649</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>11977386</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>홀세일마케팅1본부</t>
+          <t>투자금융팀</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>홀세일마케팅1팀</t>
+          <t>정수연</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>박규리</t>
+          <t>27001290</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>27001272</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>12223564</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>12223562</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>12223563</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>투자금융팀</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>권지우</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>김민</t>
+          <t>27001074</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1801,29 +2855,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>2861</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>11998333</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>11821735</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>12092636</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>투자금융팀</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>리테일마케팅실</t>
+          <t>공택영</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>정승희</t>
+          <t>27000402</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1833,29 +2912,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2874</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>119A3225</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>11533838</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11524095</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>투자금융팀</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>리테일마케팅실</t>
+          <t>서진호</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>김광립</t>
+          <t>27001005</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>198</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1865,29 +2969,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>2878</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>119A4934</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>11707215</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>11707216</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>투자금융팀</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>리테일마케팅1팀</t>
+          <t>이예림</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>조정호</t>
+          <t>27000822</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1896,6 +3025,31 @@
         </is>
       </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>2709</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>119A3160</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>11438768</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>11600375</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1904,22 +3058,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>위험관리실</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>리테일마케팅1팀</t>
+          <t>이정학</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>김희연</t>
+          <t>27000612</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1928,6 +3082,31 @@
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>119A2637</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>12027090</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12027092</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1936,22 +3115,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>위험관리팀</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>리테일마케팅2팀</t>
+          <t>김효재</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>이명원</t>
+          <t>27001032</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>192</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1960,6 +3139,31 @@
         </is>
       </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>2853</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>119A2641</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>12027091</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>12027093</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1968,54 +3172,79 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>리테일마케팅본부</t>
+          <t>위험관리팀</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>리테일마케팅2팀</t>
+          <t>이신영</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>김정민</t>
+          <t>27001167</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>27001122</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2843</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>119A4920</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>12150509</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>12150511</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>마케팅전략본부</t>
+          <t>위험관리팀</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>상품관리팀</t>
+          <t>장동욱</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>김미례</t>
+          <t>27001068</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2025,189 +3254,339 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>2897</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>119A4935</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>12084056</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>12084057</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>마케팅전략본부</t>
+          <t>준법감시실</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>상품관리팀</t>
+          <t>김상태</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>최유진</t>
+          <t>28040237</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>27000969</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>2823</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>119A3220</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>11810113</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>12114031</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>마케팅전략본부</t>
+          <t>준법감시팀</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>상품관리팀</t>
+          <t>장현주</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>이은진</t>
+          <t>27000621</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>27000804</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>2824</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>119A3217</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>11810112</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>11810114</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>마케팅전략본부</t>
+          <t>준법감시팀</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>상품관리팀</t>
+          <t>김희정</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>이시은</t>
+          <t>27000705</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>27001212</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>2825</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>119A4927</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>12115976</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>12115977</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>마케팅전략본부</t>
+          <t>준법감시팀</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>마케팅기획팀</t>
+          <t>최희정</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>서춘기</t>
+          <t>27001071</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>27001236</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>12090055</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>12090056</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>12090057</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>마케팅전략본부</t>
+          <t>소비자보호실</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>마케팅기획팀</t>
+          <t>박영진</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>이명환</t>
+          <t>27000687</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>27001101</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2864</t>
+          <t>2892</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>119A3239</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>12000123</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>12000126</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>투자금융본부</t>
+          <t>CIO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>투자금융본부</t>
+          <t>김태영</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>천우정</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2217,29 +3596,54 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>12228317</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>12228318</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>12228319</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>투자금융본부</t>
+          <t>글로벌운용본부</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>투자금융팀</t>
+          <t>양병태</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>공택영</t>
+          <t>27000939</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>146</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2249,29 +3653,54 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>2839</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>11956954</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>11965450</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>11965449</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>투자금융본부</t>
+          <t>글로벌전략운용팀</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>투자금융팀</t>
+          <t>박상건</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>서진호</t>
+          <t>27000927</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2281,29 +3710,54 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>119A4938</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>11953837</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>11953838</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>11523554</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>투자금융본부</t>
+          <t>글로벌전략운용팀</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>투자금융팀</t>
+          <t>오현지</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>김선민</t>
+          <t>27000876</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2313,29 +3767,54 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>2705</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>119A4930</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>11922092</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>12001599</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>12001600</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>투자금융본부</t>
+          <t>글로벌전략운용팀</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>투자금융팀</t>
+          <t>정채은</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>이예림</t>
+          <t>27000762</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2345,29 +3824,54 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2840</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>119A3179</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>11938848</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>12134215</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>투자금융본부</t>
+          <t>글로벌전략운용팀</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>투자금융팀</t>
+          <t>김예지</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>권지우</t>
+          <t>27001281</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2377,29 +3881,54 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>2842</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>12222680</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>12222678</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>12222679</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>글로벌전략운용팀</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>이성욱</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>임대진</t>
+          <t>27001278</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>182</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2409,29 +3938,54 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>119A3180</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>12134214</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>멀티에셋운용팀</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>주식운용1팀</t>
+          <t>김병걸</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>김윤환</t>
+          <t>27001062</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2441,29 +3995,54 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>2859</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>119A4922</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>11934332</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>12071684</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>멀티에셋운용팀</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>주식운용1팀</t>
+          <t>최미나</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>손민하</t>
+          <t>27000750</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2473,29 +4052,54 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>2831</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>119A3178</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>11762884</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>12114032</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>멀티에셋운용팀</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>주식운용1팀</t>
+          <t>서지영</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>경규인</t>
+          <t>27000972</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>186</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2505,7 +4109,32 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2828</t>
+          <t>2701</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>119A4926</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>11759615</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>12114033</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2517,49 +4146,74 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>주식운용2팀</t>
+          <t>임대진</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>노효종</t>
+          <t>27000576</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2832</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>119A3177</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>119A3175</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>11807464</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>11807463</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>12112263</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>주식운용1팀</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>주식운용2팀</t>
+          <t>김윤환</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>차헌도</t>
+          <t>27001095</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2569,29 +4223,54 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>2836</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>119A3232</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>119A3228</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>11747864</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>11934333</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>11225914</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>주식운용1팀</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>주식운용2팀</t>
+          <t>손민하</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>구슬지</t>
+          <t>27000933</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2601,29 +4280,54 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>2837</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>119A4932</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>119A3165</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>11628079</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>11744030</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>주식운용1팀</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>퀀트운용팀</t>
+          <t>경규인</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>조재현</t>
+          <t>27001230</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2633,29 +4337,54 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>119A3151</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>11628174</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>11758264</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>주식운용2팀</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>퀀트운용팀</t>
+          <t>노효종</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>신재석</t>
+          <t>27000906</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>197</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2665,29 +4394,54 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2819</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>119A4931</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>12134988</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>11871446</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>11837310</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>12147473</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>주식운용본부</t>
+          <t>주식운용2팀</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>퀀트운용팀</t>
+          <t>차헌도</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>강상석</t>
+          <t>27000570</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2697,29 +4451,54 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>119A3154</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>119A3157</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>11932432</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>12147474</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>12147475</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>주식운용2팀</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>구슬지</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>양병태</t>
+          <t>27001026</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>212</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2729,29 +4508,54 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>119A3230</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>12019474</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>12019473</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>퀀트운용팀</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>글로벌전략운용팀</t>
+          <t>조재현</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>박상건</t>
+          <t>27000996</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2761,29 +4565,54 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>11851228</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>11841187</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>11723739</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>11551652</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>11551653</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>퀀트운용팀</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>글로벌전략운용팀</t>
+          <t>신재석</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>오현지</t>
+          <t>27001245</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2793,29 +4622,54 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2705</t>
+          <t>2854</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>11743985</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>12111835</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>12111836</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>퀀트운용팀</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>글로벌전략운용팀</t>
+          <t>강상석</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>정채은</t>
+          <t>27001242</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2824,6 +4678,31 @@
         </is>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>2726</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>119A3226</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>12202575</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>12202574</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2832,22 +4711,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>채권운용본부</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>글로벌전략운용팀</t>
+          <t>박형태</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>이성욱</t>
+          <t>27000360</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2856,6 +4735,31 @@
         </is>
       </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>2808</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>119A4940</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>11231756</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>11225175</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2864,22 +4768,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>투자전략팀</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>글로벌전략운용팀</t>
+          <t>서민우</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>김예지</t>
+          <t>27001206</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2888,6 +4792,31 @@
         </is>
       </c>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>2717</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>12170627</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>12162851</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>12170628</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2896,118 +4825,193 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>투자전략팀</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>멀티에셋운용팀</t>
+          <t>서지윤</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>최미나</t>
+          <t>27000651</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>119A3176</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>12009539</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>12009543</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>채권운용1팀</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>멀티에셋운용팀</t>
+          <t>조정남</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>김병걸</t>
+          <t>27000711</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>139</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>2835</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>119A3172</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>11313153</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>11231802</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>11015478</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>글로벌운용본부</t>
+          <t>채권운용1팀</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>멀티에셋운용팀</t>
+          <t>김준진</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>서지영</t>
+          <t>27000948</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2701</t>
+          <t>2868</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>119A4923</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>11439488</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>12071957</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>12071958</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>소비자보호실</t>
+          <t>채권운용2팀</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>소비자보호실</t>
+          <t>서덕유</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>박영진</t>
+          <t>27000591</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3017,29 +5021,54 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>2844</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>119A3174</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>11124170</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>11124577</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>채권운용2팀</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>박성인</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>양경미</t>
+          <t>27000594</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3049,61 +5078,111 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>119A4928</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>11546932</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>11546933</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>채권운용3팀</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>조용익</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>장미진</t>
+          <t>27000702</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>2893</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>119A3171</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>11739600</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>11739601</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>채권운용3팀</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>오정근</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>최아람</t>
+          <t>27000912</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>121</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3113,61 +5192,111 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2872</t>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>119A4939</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>12071959</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>12071960</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>채권트레이딩팀</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>차수빈</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>기은주</t>
+          <t>27001191</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>11977688</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>11534052</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>12071685</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>채권트레이딩팀</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>운용지원팀</t>
+          <t>김지은</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>박영상</t>
+          <t>27001221</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3177,29 +5306,54 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>2895</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>채권트레이딩팀</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>김지현</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>박형태</t>
+          <t>27000642</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>130</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3209,29 +5363,50 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2808</t>
-        </is>
-      </c>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>119A4941</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>11513766</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>12071683</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>운용지원팀</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>투자전략팀</t>
+          <t>박영상</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>서민우</t>
+          <t>27001104</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>179</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3241,125 +5416,225 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>119A3173</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>11801803</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>12097167</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>운용지원팀</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>투자전략팀</t>
+          <t>양경미</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>서지윤</t>
+          <t>27000633</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>2826</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>119A3237</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>119A3236</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>12000128</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>12000124</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>운용지원팀</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>채군운용1팀</t>
+          <t>장미진</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>조정남</t>
+          <t>27000420</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>2827</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>119A3234</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>119A3235</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>12000130</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>12000129</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>운용지원팀</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>채군운용1팀</t>
+          <t>최아람</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>김준진</t>
+          <t>27000357</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>2872</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>119A3227</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>119A3238</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>119A5013</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>119A5015</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>운용지원팀</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>채군운용2팀</t>
+          <t>기은주</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>서덕유</t>
+          <t>27000615</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3369,29 +5644,54 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>2702</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>11982697</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>12009541</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>12009542</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>운용지원팀</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>채군운용2팀</t>
+          <t>황정수</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>박성인</t>
+          <t>27000828</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3401,29 +5701,54 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>119A3233</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>11996869</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>11996871</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>채군운용3팀</t>
+          <t>김민</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>오정근</t>
+          <t>27001014</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3433,29 +5758,54 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>2822</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>119A3164</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>119A5014</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>119A5017</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>상품관리팀</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>채군운용3팀</t>
+          <t>박수연</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>조용익</t>
+          <t>27001233</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>105</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3465,29 +5815,54 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2893</t>
+          <t>2848</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>상품관리팀</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>채권트레이딩팀</t>
+          <t>김미례</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>차수빈</t>
+          <t>28040204</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3497,29 +5872,54 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2865</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>119A3229</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>11443508</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>11871696</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>상품관리팀</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>채권트레이딩팀</t>
+          <t>최유진</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>김지은</t>
+          <t>27000969</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3529,29 +5929,54 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>119A4942</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>11874289</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>11878468</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>채권운용본부</t>
+          <t>상품관리팀</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>채권트레이딩팀</t>
+          <t>이시은</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>김지현</t>
+          <t>27001212</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3561,29 +5986,54 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>12159856</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>12175697</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>12175698</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>위험관리실</t>
+          <t>상품관리팀</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>위험관리실</t>
+          <t>이은진</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>이정학</t>
+          <t>27000804</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3593,29 +6043,54 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>119A3161</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>11835347</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>11873097</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>위험관리실</t>
+          <t>마케팅기획팀</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>위험관리팀</t>
+          <t>서춘기</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>김효재</t>
+          <t>27001236</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>158</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3625,29 +6100,54 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>2722</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>위험관리실</t>
+          <t>마케팅기획팀</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>위험관리팀</t>
+          <t>이명환</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>이신영</t>
+          <t>27001101</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3657,29 +6157,54 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>2864</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>위험관리실</t>
+          <t>마케팅기획팀</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>위험관리팀</t>
+          <t>윤정화</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>장동욱</t>
+          <t>27001296</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>136</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3689,29 +6214,54 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>119A4943</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>11724587</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>11724588</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>준법감시실</t>
+          <t>리테일마케팅본부</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>준법감시실</t>
+          <t>조정호</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>김상태</t>
+          <t>27000753</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3721,29 +6271,54 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>119A3231</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>11977383</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>11636721</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>11938847</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>준법감시실</t>
+          <t>리테일마케팅팀</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>준법감시팀</t>
+          <t>이명원</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>장현주</t>
+          <t>27001116</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3753,29 +6328,54 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>2889</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>119A4937</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>11970740</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>11970741</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>준법감시실</t>
+          <t>리테일마케팅팀</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>준법감시팀</t>
+          <t>김정민</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>김희정</t>
+          <t>27000924</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3785,29 +6385,54 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>119A4921</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>11938266</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>11938265</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>11870312</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>준법감시실</t>
+          <t>리테일마케팅팀</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>준법감시팀</t>
+          <t>김희연</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>최희정</t>
+          <t>27001122</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>201</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3817,29 +6442,54 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>119A2643</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>12119426</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>12119427</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>회의실</t>
+          <t>리테일마케팅실</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1회의실</t>
+          <t>정승희</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>27001161</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3849,29 +6499,54 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>12132002</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>12132003</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>회의실</t>
+          <t>리테일마케팅실</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2회의실</t>
+          <t>김광립</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>27001158</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3881,39 +6556,716 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>회의실</t>
+          <t>홀세일마케팅본부</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>성기전</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>28040192</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>119A3150</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>11928041</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>홀세일마케팅본부</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>조한준</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>119A3159</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>12159858</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>12162850</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>홀세일마케팅1팀</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>김남훈</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>27001239</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2876</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>홀세일마케팅1팀</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>이선정</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>27001113</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>119A3214</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>12121615</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>12121616</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>홀세일마케팅1팀</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>박재환</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>27001269</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2866</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>홀세일마케팅1팀</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>박규리</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>27001272</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2898</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>홀세일마케팅2팀</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>김세진</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>27001131</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>12121621</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>12124347</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>12124348</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>홀세일마케팅2팀</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>구혜진</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>27001227</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>홀세일마케팅2팀</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>이형철</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>27000381</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>119A3211</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>11410391</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>11951247</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1회의실</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2회의실</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>3회의실</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t>2845</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/webproject1/app/static/setting/member.xlsx
+++ b/webproject1/app/static/setting/member.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,16 +28,32 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,18 +67,47 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="8823596013985191773" xfId="1" hidden="0"/>
+    <cellStyle name="-4371195648647648835" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,9 +470,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -491,6783 +536,5220 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>대표이사</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>손석근</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>27001266</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>2800</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>119A2639</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>11928039</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>11928040</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>사외이사</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>강임호</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>27001146</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>이윤노</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>27000552</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>2803</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>119A3216</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>119A5018</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>11949310</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>김석</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>27000756</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>2846</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>119A4929</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>11550701</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>119A5016</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>김환호</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>27001011</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>2896</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>11997490</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>11969665</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>11996872</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>정은경</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>27000852</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>2804</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>119A3181</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>11887545</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>12014731</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>정지원</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>27000618</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>2847</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>119A2640</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>11660028</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>12008815</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>송병규</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>27001218</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>2703</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>11938264</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>12121617</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>11996868</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>강현범</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>27001119</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>경영지원팀</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>최근영</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27001308</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>2716</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>119A3215</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>12230101</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>12230188</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>LDI운용본부</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>정태욱</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>28040261</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>2815</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>119A3213</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>119A3221</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>11219345</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>12114035</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>LDI운용1팀</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>이종인</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>27000672</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>2809</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>119A3210</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>12208532</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>12009540</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>12009544</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>12208534</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>LDI운용1팀</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>정슬기</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>27001047</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>2834</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>119A4933</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>12208533</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>12121618</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>12121619</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>12208535</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>LDI운용2팀</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>우병학</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>27040273</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>233</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>2807</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>11993984</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>12115974</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>12115975</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>LDI운용2팀</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>이현지</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>27000879</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>208</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>2817</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>119A3218</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>12134213</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>12134989</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>LDI운용3팀</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>노동혁</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>27001044</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>2816</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>119A2638</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>11970626</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>11539955</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>11500988</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>11970627</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>LDI운용3팀</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>김대홍</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>27001194</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>2882</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>119A2636</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>11558266</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>12159857</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>대체투자본부</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>김주일</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>27000981</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>193</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>2838</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>119A3153</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>11979373</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>11919018</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>대체투자1팀</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>맹서현</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>27001284</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>161</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>2880</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>12223565</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>12223560</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>12223561</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>대체투자1팀</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>김선영</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>27001257</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>2710</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>119A4924</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11977689</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11977690</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>대체투자1팀</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>김예은</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>27001224</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>2870</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>119A3222</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11978042</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11978041</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>대체투자1팀</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>최해린</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>27001107</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>2714</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>119A3212</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>12111834</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>12111837</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>대체투자2팀</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>김성렬</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>26070240</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>2879</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>119A3155</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12111348</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>번호없음LG</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>대체투자2팀</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>배진우</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>27000354</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>2891</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>119A3162</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>12074042</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>12150508</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>대체투자2팀</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>김민경</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>27001029</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>2856</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>11970737</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>11970738</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>12052997</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>대체투자2팀</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>주보은</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>27001224</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>2818</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>119A3152</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>12121614</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>HK-M-0011</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>대체투자3팀</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>한승규</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>27001086</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>11953836</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>12111349</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>12111342</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>대체투자3팀</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>이정원</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>27001083</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>119A3219</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>12111343</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>12111344</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>대체투자3팀</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>황혜진</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>27001059</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>221</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>119A3223</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>12111347</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>12111346</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>부동산투자본부</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>김홍직</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>27001164</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>183</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>2723</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>12134212</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>12074041</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>12097168</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>부동산투자1팀</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>유동훈</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>27001173</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>2724</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>12149861</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>12149858</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>12149859</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>부동산투자1팀</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>정욱렬</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>27001179</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>2721</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>12154948</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>12154943</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" s="2" t="inlineStr">
         <is>
           <t>12154946</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>부동산투자1팀</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>조정현</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>27001176</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>172</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>2725</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>12149860</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>12149856</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>12149857</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>부동산투자1팀</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>이건형</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>27001182</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>196</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>2806</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>12154947</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>12154944</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>12154945</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>부동산투자1팀</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>김수정</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>27001254</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>2715</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>119A3163</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>11977387</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>11970739</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>투자금융본부</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>천우정</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>27000495</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>174</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>2860</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>119A3224</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>12097166</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>12135700</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>기업투자팀</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>심종민</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>27001293</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>119A3170</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>12224517</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>12224518</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>기업투자팀</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>김태정</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>27000807</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>119A3156</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>11833668</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>11833669</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>기업투자팀</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>김시영</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>27000990</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>119A4925</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>11977384</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>11977385</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>투자금융팀</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>김선민</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>27001080</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>2813</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>12096648</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>12096649</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>11977386</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>투자금융팀</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>정수연</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>27001290</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>12223564</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>12223562</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>12223563</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>투자금융팀</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>권지우</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>27001074</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>2861</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>11998333</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>11821735</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>12092636</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>11990219</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>투자금융팀</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>공택영</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>27000402</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>2874</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>119A3225</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>11533838</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>11524095</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>투자금융팀</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>서진호</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>27001005</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>2878</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>119A4934</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>11707215</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>11707216</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>투자금융팀</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>이예림</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>27000822</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>127</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>2709</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>119A3160</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>11438768</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>11600375</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>위험관리실</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>이정학</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>27000612</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>2899</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>119A2637</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>12027090</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>12027092</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>위험관리팀</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>김효재</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>27001032</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>2853</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>119A2641</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>12027091</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" s="2" t="inlineStr">
         <is>
           <t>12027093</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>위험관리팀</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>이신영</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>27001167</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>2843</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>119A4920</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>12150509</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>12150511</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>위험관리팀</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>장동욱</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>27001068</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>2897</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>119A4935</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>12084056</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>12084057</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>준법감시실</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>김상태</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>28040237</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>2823</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>119A3220</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>11810113</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>12114031</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>준법감시팀</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>장현주</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>27000621</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>215</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>2824</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>119A3217</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>11810112</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>11810114</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>준법감시팀</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>김희정</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>27000705</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>2825</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>119A4927</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>12115976</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" s="2" t="inlineStr">
         <is>
           <t>12115977</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>준법감시팀</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>최희정</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>27001071</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>2869</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>12090055</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>12090056</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" s="2" t="inlineStr">
         <is>
           <t>12090057</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>소비자보호실</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>박영진</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>27000687</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>2892</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>119A3239</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>12000123</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>12000126</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>CIO</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>김태영</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>12228317</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>12228318</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>12228319</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>글로벌운용본부</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>양병태</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>27000939</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>2839</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>11956954</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>11965450</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>11965449</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>글로벌전략운용팀</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>박상건</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>27000927</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>2700</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>119A4938</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>11953837</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58" s="2" t="inlineStr">
         <is>
           <t>11953838</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K58" s="2" t="inlineStr">
         <is>
           <t>11523554</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>글로벌전략운용팀</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>오현지</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>27000876</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>2705</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>119A4930</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>11922092</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J59" s="2" t="inlineStr">
         <is>
           <t>12001599</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K59" s="2" t="inlineStr">
         <is>
           <t>12001600</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>글로벌전략운용팀</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>정채은</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>27000762</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr">
         <is>
           <t>2840</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>119A3179</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>11938848</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J60" s="2" t="inlineStr">
         <is>
           <t>12134215</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>글로벌전략운용팀</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>김예지</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>27001281</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>2842</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>12222680</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>12222678</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J61" s="2" t="inlineStr">
         <is>
           <t>12222679</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>글로벌전략운용팀</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>이성욱</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>27001278</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
         <is>
           <t>182</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>2841</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>119A3180</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>12134214</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>멀티에셋운용팀</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>김병걸</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>27001062</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>2859</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>119A4922</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>11934332</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" s="2" t="inlineStr">
         <is>
           <t>12071684</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>멀티에셋운용팀</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>최미나</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>27000750</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>2831</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>119A3178</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>11762884</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J64" s="2" t="inlineStr">
         <is>
           <t>12114032</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>멀티에셋운용팀</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>서지영</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>27000972</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr">
         <is>
           <t>2701</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>119A4926</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>11759615</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J65" s="2" t="inlineStr">
         <is>
           <t>12114033</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>주식운용본부</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>임대진</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>27000576</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
         <is>
           <t>2832</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>119A3177</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" s="2" t="inlineStr">
         <is>
           <t>119A3175</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>11807464</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J66" s="2" t="inlineStr">
         <is>
           <t>11807463</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K66" s="2" t="inlineStr">
         <is>
           <t>12112263</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>주식운용1팀</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>김윤환</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>27001095</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
         <is>
           <t>2836</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>119A3232</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" s="2" t="inlineStr">
         <is>
           <t>119A3228</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I67" s="2" t="inlineStr">
         <is>
           <t>11747864</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J67" s="2" t="inlineStr">
         <is>
           <t>11934333</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K67" s="2" t="inlineStr">
         <is>
           <t>11225914</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>주식운용1팀</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>손민하</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>27000933</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr">
         <is>
           <t>2837</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>119A4932</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>119A3165</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>11628079</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>11744030</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>번호없음삼성</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>번호없음HP</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>주식운용1팀</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>경규인</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>27001230</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>2828</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>119A3151</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr">
         <is>
           <t>11628174</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J69" s="2" t="inlineStr">
         <is>
           <t>11758264</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>주식운용2팀</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>노효종</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>27000906</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>2819</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>119A4931</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" s="2" t="inlineStr">
         <is>
           <t>12134988</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>11871446</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>11837310</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K70" s="2" t="inlineStr">
         <is>
           <t>12147473</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>주식운용2팀</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>차헌도</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>27000570</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr">
         <is>
           <t>2871</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>119A3154</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" s="2" t="inlineStr">
         <is>
           <t>119A3157</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>11932432</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J71" s="2" t="inlineStr">
         <is>
           <t>12147474</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K71" s="2" t="inlineStr">
         <is>
           <t>12147475</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>주식운용2팀</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>구슬지</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>27001026</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>212</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr">
         <is>
           <t>2873</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>119A3230</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>12019474</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" s="2" t="inlineStr">
         <is>
           <t>12019473</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>퀀트운용팀</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>조재현</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>27000996</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>2708</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>11851228</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" s="2" t="inlineStr">
         <is>
           <t>11841187</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>11723739</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J73" s="2" t="inlineStr">
         <is>
           <t>11551652</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K73" s="2" t="inlineStr">
         <is>
           <t>11551653</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>퀀트운용팀</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>신재석</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>27001245</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr">
         <is>
           <t>2854</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>11743985</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>12111835</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J74" s="2" t="inlineStr">
         <is>
           <t>12111836</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>퀀트운용팀</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>강상석</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>27001242</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="2" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr">
         <is>
           <t>2726</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" s="2" t="inlineStr">
         <is>
           <t>119A3226</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>12202575</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J75" s="2" t="inlineStr">
         <is>
           <t>12202574</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>채권운용본부</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>박형태</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>27000360</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>122</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>2808</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" s="2" t="inlineStr">
         <is>
           <t>119A4940</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>11231756</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J76" s="2" t="inlineStr">
         <is>
           <t>11225175</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>투자전략팀</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>서민우</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>27001206</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>2717</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>12170627</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr">
         <is>
           <t>12162851</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J77" s="2" t="inlineStr">
         <is>
           <t>12170628</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>투자전략팀</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>서지윤</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>27000651</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>2875</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>119A3176</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr">
         <is>
           <t>12009539</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J78" s="2" t="inlineStr">
         <is>
           <t>12009543</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>채권운용1팀</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>조정남</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>27000711</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>2835</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" s="2" t="inlineStr">
         <is>
           <t>119A3172</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>11313153</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>11231802</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>11015478</t>
-        </is>
-      </c>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>HK-M-0060</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>HK-M-0045</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>채권운용1팀</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>김준진</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>27000948</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>2868</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G80" s="2" t="inlineStr">
         <is>
           <t>119A4923</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr">
         <is>
           <t>11439488</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" s="2" t="inlineStr">
         <is>
           <t>12071957</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K80" s="2" t="inlineStr">
         <is>
           <t>12071958</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>채권운용2팀</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>서덕유</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>27000591</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>2844</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" s="2" t="inlineStr">
         <is>
           <t>119A3174</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr">
         <is>
           <t>11124170</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J81" s="2" t="inlineStr">
         <is>
           <t>11124577</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>채권운용2팀</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>박성인</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>27000594</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>2849</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>119A4928</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr">
         <is>
           <t>11546932</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J82" s="2" t="inlineStr">
         <is>
           <t>11546933</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>채권운용3팀</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>조용익</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>27000702</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>2893</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" s="2" t="inlineStr">
         <is>
           <t>119A3171</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr">
         <is>
           <t>11739600</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J83" s="2" t="inlineStr">
         <is>
           <t>11739601</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>채권운용3팀</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>오정근</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>27000912</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr">
         <is>
           <t>2855</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" s="2" t="inlineStr">
         <is>
           <t>119A4939</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr">
         <is>
           <t>12071959</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" s="2" t="inlineStr">
         <is>
           <t>12071960</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>채권트레이딩팀</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>차수빈</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>27001191</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr">
         <is>
           <t>2887</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>11977688</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr">
         <is>
           <t>11534052</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J85" s="2" t="inlineStr">
         <is>
           <t>12071685</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>채권트레이딩팀</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>김지은</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>27001221</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>2895</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G86" s="2" t="inlineStr"/>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>채권트레이딩팀</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>김지현</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>27000642</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" s="2" t="inlineStr">
         <is>
           <t>130</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
+      <c r="E87" s="2" t="inlineStr"/>
+      <c r="F87" s="2" t="inlineStr">
         <is>
           <t>2852</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" s="2" t="inlineStr">
         <is>
           <t>119A4941</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr">
         <is>
           <t>11513766</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" s="2" t="inlineStr">
         <is>
           <t>12071683</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>박영상</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>27001104</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="2" t="inlineStr">
         <is>
           <t>179</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>2833</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" s="2" t="inlineStr">
         <is>
           <t>119A3173</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
+      <c r="H88" s="2" t="inlineStr"/>
+      <c r="I88" s="2" t="inlineStr">
         <is>
           <t>11801803</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" s="2" t="inlineStr">
         <is>
           <t>12097167</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>양경미</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>27000633</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" s="2" t="inlineStr">
         <is>
           <t>2826</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" s="2" t="inlineStr">
         <is>
           <t>119A3237</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" s="2" t="inlineStr">
         <is>
           <t>119A3236</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I89" s="2" t="inlineStr">
         <is>
           <t>12000128</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J89" s="2" t="inlineStr">
         <is>
           <t>12000124</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>장미진</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>27000420</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" s="2" t="inlineStr">
         <is>
           <t>2827</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" s="2" t="inlineStr">
         <is>
           <t>119A3234</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" s="2" t="inlineStr">
         <is>
           <t>119A3235</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I90" s="2" t="inlineStr">
         <is>
           <t>12000130</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J90" s="2" t="inlineStr">
         <is>
           <t>12000129</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>최아람</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>27000357</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" s="2" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" s="2" t="inlineStr">
         <is>
           <t>2872</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" s="2" t="inlineStr">
         <is>
           <t>119A3227</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" s="2" t="inlineStr">
         <is>
           <t>119A3238</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I91" s="2" t="inlineStr">
         <is>
           <t>119A5013</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J91" s="2" t="inlineStr">
         <is>
           <t>119A5015</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>기은주</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>27000615</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr">
         <is>
           <t>2702</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G92" s="2" t="inlineStr">
         <is>
           <t>11982697</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr">
         <is>
           <t>12009541</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J92" s="2" t="inlineStr">
         <is>
           <t>12009542</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>운용지원팀</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>황정수</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>27000828</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>119A3233</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr">
         <is>
           <t>11996869</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J93" s="2" t="inlineStr">
         <is>
           <t>11996871</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>CMO</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>김민</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>27001014</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr">
         <is>
           <t>2822</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>119A3164</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr">
         <is>
           <t>119A5014</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J94" s="2" t="inlineStr">
         <is>
           <t>119A5017</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>상품관리팀</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>박수연</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>27001233</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="2" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>2848</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>12121620</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>12197669</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>12197670</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>상품관리팀</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>김미례</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>28040204</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" s="2" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>2865</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" s="2" t="inlineStr">
         <is>
           <t>119A3229</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>11443508</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>HK-M-0083</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
         <is>
           <t>11871696</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>상품관리팀</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>최유진</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>27000969</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" s="2" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr"/>
+      <c r="F97" s="2" t="inlineStr">
         <is>
           <t>2810</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" s="2" t="inlineStr">
         <is>
           <t>119A4942</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr">
         <is>
           <t>11874289</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J97" s="2" t="inlineStr">
         <is>
           <t>11878468</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>상품관리팀</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>이시은</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>27001212</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" s="2" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
+      <c r="E98" s="2" t="inlineStr"/>
+      <c r="F98" s="2" t="inlineStr">
         <is>
           <t>2863</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" s="2" t="inlineStr">
         <is>
           <t>12159856</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
+      <c r="H98" s="2" t="inlineStr"/>
+      <c r="I98" s="2" t="inlineStr">
         <is>
           <t>12175697</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J98" s="2" t="inlineStr">
         <is>
           <t>12175698</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K98" s="2" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>상품관리팀</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>이은진</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>27000804</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" s="2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr">
         <is>
           <t>2858</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" s="2" t="inlineStr">
         <is>
           <t>119A3161</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr">
         <is>
           <t>11835347</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J99" s="2" t="inlineStr">
         <is>
           <t>11873097</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>마케팅기획팀</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>서춘기</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>27001236</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr">
         <is>
           <t>2722</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>12045170</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>121A1822</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>121A1823</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>마케팅기획팀</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>이명환</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>27001101</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
+      <c r="E101" s="2" t="inlineStr"/>
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>2864</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>12108758</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>12085204</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>11943735</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>마케팅기획팀</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>윤정화</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>27001296</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" s="2" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr"/>
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr">
         <is>
           <t>119A4943</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
+      <c r="H102" s="2" t="inlineStr"/>
+      <c r="I102" s="2" t="inlineStr">
         <is>
           <t>11724587</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J102" s="2" t="inlineStr">
         <is>
           <t>11724588</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>리테일마케팅본부</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>조정호</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>27000753</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
+      <c r="E103" s="2" t="inlineStr"/>
+      <c r="F103" s="2" t="inlineStr">
         <is>
           <t>2886</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>119A3231</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>HK-M-0151</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>11938847</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>리테일마케팅팀</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>이명원</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>27001116</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr"/>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>2889</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>119A4937</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>11970740</t>
+        </is>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>11970741</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>리테일마케팅팀</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>김정민</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>27000924</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>119A4921</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr"/>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>11938266</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>11938265</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>11870312</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>리테일마케팅팀</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>김희연</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>27001122</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>119A2643</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>12119426</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>12119427</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>리테일마케팅실</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>정승희</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>27001161</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>12132002</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>12132003</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr"/>
+      <c r="K107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>리테일마케팅실</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>김광립</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>27001158</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>12097169</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>12097164</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>홀세일마케팅본부</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>성기전</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>28040192</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>119A3150</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>11928041</t>
+        </is>
+      </c>
+      <c r="J109" s="2" t="inlineStr"/>
+      <c r="K109" s="2" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>홀세일마케팅본부</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>조한준</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>27001305</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>119A3159</t>
+        </is>
+      </c>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>12159858</t>
+        </is>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>12162850</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>홀세일마케팅1팀</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>김남훈</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>27001239</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>2876</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
         <is>
           <t>11977383</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>11636721</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>11938847</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>리테일마케팅팀</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>이명원</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>27001116</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2889</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>119A4937</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>11970740</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>11970741</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>리테일마케팅팀</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>김정민</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>27000924</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2812</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>119A4921</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>11938266</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>11938265</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>11870312</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>리테일마케팅팀</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>김희연</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>27001122</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2718</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>119A2643</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>12119426</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>12119427</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>리테일마케팅실</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>정승희</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>27001161</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2711</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>12132002</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>12132003</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>리테일마케팅실</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>김광립</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>27001158</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2713</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>홀세일마케팅본부</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>성기전</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>28040192</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2811</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>119A3150</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>11928041</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>홀세일마케팅본부</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>조한준</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>119A3159</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>12159858</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>12162850</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>12019475</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>12019472</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅1팀</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>김남훈</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>27001239</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2876</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>이선정</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>27001113</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>119A3214</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>12121615</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>12121616</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅1팀</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>이선정</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>27001113</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2881</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>119A3214</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>12121615</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>12121616</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>박재환</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>27001269</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>2866</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅1팀</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>박재환</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>27001269</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2866</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>홀세일마케팅1팀</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>박규리</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>27001272</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" s="2" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr">
         <is>
           <t>2898</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>12162854</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>12162853</t>
+        </is>
+      </c>
+      <c r="J114" s="2" t="inlineStr"/>
+      <c r="K114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2팀</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>김세진</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>27001131</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" s="2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>2719</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G115" s="2" t="inlineStr">
         <is>
           <t>12121621</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr">
         <is>
           <t>12124347</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J115" s="2" t="inlineStr">
         <is>
           <t>12124348</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2팀</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>구혜진</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>27001227</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" s="2" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr">
         <is>
           <t>2888</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G116" s="2" t="inlineStr"/>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr"/>
+      <c r="J116" s="2" t="inlineStr"/>
+      <c r="K116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>홀세일마케팅2팀</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>이형철</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>27000381</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" s="2" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr">
         <is>
           <t>2801</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G117" s="2" t="inlineStr">
         <is>
           <t>119A3211</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr">
         <is>
           <t>11410391</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J117" s="2" t="inlineStr">
         <is>
           <t>11951247</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>1회의실</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2884</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2회의실</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2883</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>3회의실</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2845</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K117" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
